--- a/LineFollowingBot/Documentation/BillOfMaterials.xlsx
+++ b/LineFollowingBot/Documentation/BillOfMaterials.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Product</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>QTR-8A Reflectance Sensor Array</t>
+  </si>
+  <si>
+    <t>Pololu Wheel 42x19mm Pair</t>
+  </si>
+  <si>
+    <t>Pololu Micro Metal Gearmotor Bracket Extended Pair</t>
+  </si>
+  <si>
+    <t>Optional part including wheels, brakets, and encoders</t>
   </si>
 </sst>
 </file>
@@ -77,7 +89,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -116,8 +128,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,150 +456,154 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <f>B2*C2</f>
-        <v>39.950000000000003</v>
-      </c>
-    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
-        <v>31.95</v>
+        <v>6.98</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D7" si="0">B3*C3</f>
-        <v>31.95</v>
+        <f>B3*C3</f>
+        <v>6.98</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <f>B4*C4</f>
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>31.95</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D10" si="0">B5*C5</f>
+        <v>31.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B6" s="1">
         <v>7.95</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>7.95</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B7" s="1">
         <v>2.99</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>2.99</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B8" s="1">
         <v>19.95</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
-        <v>19.989999999999998</v>
+        <v>14.95</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ref="D10:D16" si="1">B10*C10</f>
-        <v>19.989999999999998</v>
+        <f t="shared" si="0"/>
+        <v>14.95</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2">
-        <v>39</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>16.95</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:D15" si="1">B13*C13</f>
+        <v>33.9</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1">
         <v>16.95</v>
@@ -602,7 +618,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1">
         <v>16.95</v>
@@ -615,44 +631,76 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1">
-        <v>16.95</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="1"/>
-        <v>33.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="D18" s="1">
-        <f>SUM( D2:D16)</f>
-        <v>266.48</v>
+      <c r="B17" s="1"/>
+      <c r="D17" s="1">
+        <f>SUM( D3:D15)</f>
+        <v>194.46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <f>B20*C20</f>
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <f>B21*C21</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <f>B24*C24</f>
+        <v>39.950000000000003</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://www.pololu.com/catalog/product/1218"/>
-    <hyperlink ref="A14" r:id="rId2" display="http://www.pololu.com/catalog/product/2213"/>
-    <hyperlink ref="A15" r:id="rId3" display="http://www.pololu.com/catalog/product/2203"/>
-    <hyperlink ref="A16" r:id="rId4" display="http://www.pololu.com/catalog/product/2204"/>
-    <hyperlink ref="A3" r:id="rId5" display="http://www.pololu.com/catalog/product/1302"/>
-    <hyperlink ref="A4" r:id="rId6" display="http://www.pololu.com/catalog/product/1502"/>
-    <hyperlink ref="A5" r:id="rId7" display="http://www.pololu.com/catalog/product/951"/>
-    <hyperlink ref="A6" r:id="rId8" display="http://www.pololu.com/catalog/product/978"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId9"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/LineFollowingBot/Documentation/BillOfMaterials.xlsx
+++ b/LineFollowingBot/Documentation/BillOfMaterials.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Product</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>XBee-PRO 900 extended range module w/ wire antenna</t>
-  </si>
-  <si>
-    <t>Narrow down to the one we actually use</t>
   </si>
   <si>
     <t>Optional parts for wireless serial</t>
@@ -431,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,245 +453,235 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <f>B2*C2</f>
+        <v>6.98</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="1">
-        <v>6.98</v>
+        <v>4.99</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="1">
         <f>B3*C3</f>
-        <v>6.98</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>4.99</v>
+        <v>31.95</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <f>B4*C4</f>
-        <v>4.99</v>
+        <f t="shared" ref="D4:D9" si="0">B4*C4</f>
+        <v>31.95</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>31.95</v>
+        <v>7.95</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D10" si="0">B5*C5</f>
-        <v>31.95</v>
+        <f t="shared" si="0"/>
+        <v>7.95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>7.95</v>
+        <v>2.99</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>7.95</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>2.99</v>
+        <v>19.95</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>2.99</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>19.95</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>19.95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>14.95</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
-        <v>14.95</v>
+        <v>16.95</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>14.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="D11" s="1"/>
+        <f t="shared" ref="D10" si="1">B10*C10</f>
+        <v>33.9</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1">
-        <v>16.95</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" ref="D13:D15" si="1">B13*C13</f>
-        <v>33.9</v>
+        <v>16</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="D12" s="1">
+        <f>SUM( D2:D10)</f>
+        <v>126.66</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1">
-        <v>16.95</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="1"/>
-        <v>33.9</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>16.95</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="1"/>
-        <v>33.9</v>
+        <f>B15*C15</f>
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <f>B16*C16</f>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16.95</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="D17" s="1">
-        <f>SUM( D3:D15)</f>
-        <v>194.46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="D19" s="1"/>
+        <f>B17*C17</f>
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>16.95</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <f>B18*C18</f>
+        <v>33.9</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <f>B20*C20</f>
-        <v>19.989999999999998</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2">
-        <v>39</v>
+        <v>4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>39.950000000000003</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="1">
         <f>B21*C21</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <f>B24*C24</f>
         <v>39.950000000000003</v>
       </c>
     </row>

--- a/LineFollowingBot/Documentation/BillOfMaterials.xlsx
+++ b/LineFollowingBot/Documentation/BillOfMaterials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +575,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>16.95</v>
@@ -584,7 +584,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ref="D10" si="1">B10*C10</f>
+        <f>B10*C10</f>
         <v>33.9</v>
       </c>
     </row>
@@ -637,7 +637,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1">
         <v>16.95</v>
@@ -646,7 +646,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="1">
-        <f>B17*C17</f>
+        <f t="shared" ref="D17" si="1">B17*C17</f>
         <v>33.9</v>
       </c>
     </row>
